--- a/correlation/data/dashboard.xlsx
+++ b/correlation/data/dashboard.xlsx
@@ -453,28 +453,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-1.561608807066137</v>
+        <v>-1.466843587105821</v>
       </c>
       <c r="C2">
-        <v>1.119716074834382</v>
+        <v>1.829455166549603</v>
       </c>
       <c r="D2">
-        <v>-1.188515085031415</v>
+        <v>-1.362537438580565</v>
       </c>
       <c r="E2">
-        <v>-2.9702152669964</v>
+        <v>-5.754773483708512</v>
       </c>
       <c r="F2">
-        <v>-1.198553296728945</v>
+        <v>-1.32978660941436</v>
       </c>
       <c r="G2">
-        <v>-1.163897329433607</v>
+        <v>-1.327647956598086</v>
       </c>
       <c r="H2">
-        <v>2.081549111218057</v>
+        <v>2.585852488986264</v>
       </c>
       <c r="I2">
-        <v>1.452740522658257</v>
+        <v>1.995820471880707</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -482,28 +482,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7438756227493286</v>
+        <v>0.7297208309173584</v>
       </c>
       <c r="C3">
-        <v>0.6538133025169373</v>
+        <v>0.7651326060295105</v>
       </c>
       <c r="D3">
-        <v>0.3990430533885956</v>
+        <v>0.5267860293388367</v>
       </c>
       <c r="E3">
-        <v>0.2946774959564209</v>
+        <v>0.704142689704895</v>
       </c>
       <c r="F3">
-        <v>0.5895354151725769</v>
+        <v>0.6569485068321228</v>
       </c>
       <c r="G3">
-        <v>0.4933252930641174</v>
+        <v>0.638373851776123</v>
       </c>
       <c r="H3">
-        <v>0.8719812631607056</v>
+        <v>0.9241458773612976</v>
       </c>
       <c r="I3">
-        <v>0.6394994258880615</v>
+        <v>0.8260146975517273</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -511,28 +511,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.7496534585952759</v>
+        <v>0.7386415004730225</v>
       </c>
       <c r="C4">
-        <v>0.6733808517456055</v>
+        <v>0.7814367413520813</v>
       </c>
       <c r="D4">
-        <v>0.4752222001552582</v>
+        <v>0.5714600086212158</v>
       </c>
       <c r="E4">
-        <v>0.4985916912555695</v>
+        <v>0.8585522174835205</v>
       </c>
       <c r="F4">
-        <v>0.6260960102081299</v>
+        <v>0.6786956787109375</v>
       </c>
       <c r="G4">
-        <v>0.5360467433929443</v>
+        <v>0.6555671095848083</v>
       </c>
       <c r="H4">
-        <v>0.8809932470321655</v>
+        <v>0.9277135729789734</v>
       </c>
       <c r="I4">
-        <v>0.6843389272689819</v>
+        <v>0.8328603506088257</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -540,28 +540,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7909567952156067</v>
+        <v>0.7795528769493103</v>
       </c>
       <c r="C5">
-        <v>0.6554429531097412</v>
+        <v>0.7731603980064392</v>
       </c>
       <c r="D5">
-        <v>0.5451146364212036</v>
+        <v>0.6078836917877197</v>
       </c>
       <c r="E5">
-        <v>0.4909877479076385</v>
+        <v>0.7940327525138855</v>
       </c>
       <c r="F5">
-        <v>0.7093066573143005</v>
+        <v>0.7429004907608032</v>
       </c>
       <c r="G5">
-        <v>0.609350860118866</v>
+        <v>0.6816048622131348</v>
       </c>
       <c r="H5">
-        <v>0.8455325365066528</v>
+        <v>0.9028275012969971</v>
       </c>
       <c r="I5">
-        <v>0.6989794373512268</v>
+        <v>0.8141080141067505</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -569,28 +569,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.6091315746307373</v>
+        <v>0.6269000768661499</v>
       </c>
       <c r="C6">
-        <v>0.4276188313961029</v>
+        <v>0.4427820146083832</v>
       </c>
       <c r="D6">
-        <v>0.74459308385849</v>
+        <v>0.7728695869445801</v>
       </c>
       <c r="E6">
-        <v>0.754423975944519</v>
+        <v>0.9104183912277222</v>
       </c>
       <c r="F6">
-        <v>0.6174978017807007</v>
+        <v>0.645078182220459</v>
       </c>
       <c r="G6">
-        <v>0.7113687992095947</v>
+        <v>0.7321556806564331</v>
       </c>
       <c r="H6">
-        <v>0.5004085302352905</v>
+        <v>0.6163284778594971</v>
       </c>
       <c r="I6">
-        <v>0.5388332009315491</v>
+        <v>0.6189820766448975</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -598,28 +598,28 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.5630916357040405</v>
+        <v>0.6001589298248291</v>
       </c>
       <c r="C7">
-        <v>0.3979531824588776</v>
+        <v>0.398622453212738</v>
       </c>
       <c r="D7">
-        <v>0.7642958760261536</v>
+        <v>0.7930506467819214</v>
       </c>
       <c r="E7">
-        <v>0.7386203408241272</v>
+        <v>0.8965649604797363</v>
       </c>
       <c r="F7">
-        <v>0.6196059584617615</v>
+        <v>0.6478018164634705</v>
       </c>
       <c r="G7">
-        <v>0.7147839665412903</v>
+        <v>0.7372738718986511</v>
       </c>
       <c r="H7">
-        <v>0.4019784927368164</v>
+        <v>0.5679092407226562</v>
       </c>
       <c r="I7">
-        <v>0.5038883090019226</v>
+        <v>0.5969750285148621</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -627,28 +627,28 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.5609515905380249</v>
+        <v>0.5944983959197998</v>
       </c>
       <c r="C8">
-        <v>0.4434870481491089</v>
+        <v>0.4583466053009033</v>
       </c>
       <c r="D8">
-        <v>0.7564341425895691</v>
+        <v>0.7844144105911255</v>
       </c>
       <c r="E8">
-        <v>0.8362292051315308</v>
+        <v>0.9635687470436096</v>
       </c>
       <c r="F8">
-        <v>0.622566819190979</v>
+        <v>0.6506397128105164</v>
       </c>
       <c r="G8">
-        <v>0.6981953382492065</v>
+        <v>0.7196711897850037</v>
       </c>
       <c r="H8">
-        <v>0.4472680985927582</v>
+        <v>0.5943387150764465</v>
       </c>
       <c r="I8">
-        <v>0.5086039304733276</v>
+        <v>0.5931426286697388</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/data/dashboard.xlsx
+++ b/correlation/data/dashboard.xlsx
@@ -453,28 +453,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-1.466843587105821</v>
+        <v>-1.426070381925191</v>
       </c>
       <c r="C2">
-        <v>1.829455166549603</v>
+        <v>2.146491836940645</v>
       </c>
       <c r="D2">
-        <v>-1.362537438580565</v>
+        <v>-1.151485282535611</v>
       </c>
       <c r="E2">
-        <v>-5.754773483708512</v>
+        <v>-3.862552978651316</v>
       </c>
       <c r="F2">
-        <v>-1.32978660941436</v>
+        <v>-1.260257119137956</v>
       </c>
       <c r="G2">
-        <v>-1.327647956598086</v>
+        <v>-1.541976650683507</v>
       </c>
       <c r="H2">
-        <v>2.585852488986264</v>
+        <v>2.207178392794245</v>
       </c>
       <c r="I2">
-        <v>1.995820471880707</v>
+        <v>2.385690306272521</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -482,28 +482,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7297208309173584</v>
+        <v>0.7251585721969604</v>
       </c>
       <c r="C3">
-        <v>0.7651326060295105</v>
+        <v>0.8112062811851501</v>
       </c>
       <c r="D3">
-        <v>0.5267860293388367</v>
+        <v>0.5545050501823425</v>
       </c>
       <c r="E3">
-        <v>0.704142689704895</v>
+        <v>0.6934453248977661</v>
       </c>
       <c r="F3">
-        <v>0.6569485068321228</v>
+        <v>0.6583779454231262</v>
       </c>
       <c r="G3">
-        <v>0.638373851776123</v>
+        <v>0.6970325112342834</v>
       </c>
       <c r="H3">
-        <v>0.9241458773612976</v>
+        <v>0.8947993516921997</v>
       </c>
       <c r="I3">
-        <v>0.8260146975517273</v>
+        <v>0.8763228058815002</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -511,28 +511,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.7386415004730225</v>
+        <v>0.7342475652694702</v>
       </c>
       <c r="C4">
-        <v>0.7814367413520813</v>
+        <v>0.8252894282341003</v>
       </c>
       <c r="D4">
-        <v>0.5714600086212158</v>
+        <v>0.58415687084198</v>
       </c>
       <c r="E4">
-        <v>0.8585522174835205</v>
+        <v>0.7982645630836487</v>
       </c>
       <c r="F4">
-        <v>0.6786956787109375</v>
+        <v>0.6770882606506348</v>
       </c>
       <c r="G4">
-        <v>0.6555671095848083</v>
+        <v>0.7060934901237488</v>
       </c>
       <c r="H4">
-        <v>0.9277135729789734</v>
+        <v>0.8987610936164856</v>
       </c>
       <c r="I4">
-        <v>0.8328603506088257</v>
+        <v>0.8775305151939392</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -540,28 +540,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7795528769493103</v>
+        <v>0.7746322154998779</v>
       </c>
       <c r="C5">
-        <v>0.7731603980064392</v>
+        <v>0.8160256147384644</v>
       </c>
       <c r="D5">
-        <v>0.6078836917877197</v>
+        <v>0.6060454845428467</v>
       </c>
       <c r="E5">
-        <v>0.7940327525138855</v>
+        <v>0.7430962920188904</v>
       </c>
       <c r="F5">
-        <v>0.7429004907608032</v>
+        <v>0.7346484661102295</v>
       </c>
       <c r="G5">
-        <v>0.6816048622131348</v>
+        <v>0.715342104434967</v>
       </c>
       <c r="H5">
-        <v>0.9028275012969971</v>
+        <v>0.8715158700942993</v>
       </c>
       <c r="I5">
-        <v>0.8141080141067505</v>
+        <v>0.8538533449172974</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -569,28 +569,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.6269000768661499</v>
+        <v>0.6302435994148254</v>
       </c>
       <c r="C6">
-        <v>0.4427820146083832</v>
+        <v>0.4539577066898346</v>
       </c>
       <c r="D6">
-        <v>0.7728695869445801</v>
+        <v>0.7369418144226074</v>
       </c>
       <c r="E6">
-        <v>0.9104183912277222</v>
+        <v>0.8329867720603943</v>
       </c>
       <c r="F6">
-        <v>0.645078182220459</v>
+        <v>0.6459562182426453</v>
       </c>
       <c r="G6">
-        <v>0.7321556806564331</v>
+        <v>0.7567756175994873</v>
       </c>
       <c r="H6">
-        <v>0.6163284778594971</v>
+        <v>0.6286484599113464</v>
       </c>
       <c r="I6">
-        <v>0.6189820766448975</v>
+        <v>0.6756175756454468</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -598,28 +598,28 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.6001589298248291</v>
+        <v>0.6126068234443665</v>
       </c>
       <c r="C7">
-        <v>0.398622453212738</v>
+        <v>0.418031245470047</v>
       </c>
       <c r="D7">
-        <v>0.7930506467819214</v>
+        <v>0.7564313411712646</v>
       </c>
       <c r="E7">
-        <v>0.8965649604797363</v>
+        <v>0.8167857527732849</v>
       </c>
       <c r="F7">
-        <v>0.6478018164634705</v>
+        <v>0.6471148729324341</v>
       </c>
       <c r="G7">
-        <v>0.7372738718986511</v>
+        <v>0.7648336291313171</v>
       </c>
       <c r="H7">
-        <v>0.5679092407226562</v>
+        <v>0.5998349785804749</v>
       </c>
       <c r="I7">
-        <v>0.5969750285148621</v>
+        <v>0.6591144800186157</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -627,28 +627,28 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.5944983959197998</v>
+        <v>0.6040168404579163</v>
       </c>
       <c r="C8">
-        <v>0.4583466053009033</v>
+        <v>0.4746412336826324</v>
       </c>
       <c r="D8">
-        <v>0.7844144105911255</v>
+        <v>0.7469369173049927</v>
       </c>
       <c r="E8">
-        <v>0.9635687470436096</v>
+        <v>0.9023038744926453</v>
       </c>
       <c r="F8">
-        <v>0.6506397128105164</v>
+        <v>0.6472871899604797</v>
       </c>
       <c r="G8">
-        <v>0.7196711897850037</v>
+        <v>0.7410669326782227</v>
       </c>
       <c r="H8">
-        <v>0.5943387150764465</v>
+        <v>0.6080907583236694</v>
       </c>
       <c r="I8">
-        <v>0.5931426286697388</v>
+        <v>0.6371321678161621</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/data/dashboard.xlsx
+++ b/correlation/data/dashboard.xlsx
@@ -453,28 +453,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-1.426070381925191</v>
+        <v>-1.437596509341889</v>
       </c>
       <c r="C2">
-        <v>2.146491836940645</v>
+        <v>2.506157836518138</v>
       </c>
       <c r="D2">
-        <v>-1.151485282535611</v>
+        <v>1.358754435452314</v>
       </c>
       <c r="E2">
-        <v>-3.862552978651316</v>
+        <v>-3.060100046761065</v>
       </c>
       <c r="F2">
-        <v>-1.260257119137956</v>
+        <v>-1.092836440065631</v>
       </c>
       <c r="G2">
-        <v>-1.541976650683507</v>
+        <v>-1.300267549428455</v>
       </c>
       <c r="H2">
-        <v>2.207178392794245</v>
+        <v>2.467877250743614</v>
       </c>
       <c r="I2">
-        <v>2.385690306272521</v>
+        <v>1.680280646081046</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -482,28 +482,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7251585721969604</v>
+        <v>0.7242759466171265</v>
       </c>
       <c r="C3">
-        <v>0.8112062811851501</v>
+        <v>0.8615610599517822</v>
       </c>
       <c r="D3">
-        <v>0.5545050501823425</v>
+        <v>0.437048077583313</v>
       </c>
       <c r="E3">
-        <v>0.6934453248977661</v>
+        <v>0.6978660225868225</v>
       </c>
       <c r="F3">
-        <v>0.6583779454231262</v>
+        <v>0.6532076001167297</v>
       </c>
       <c r="G3">
-        <v>0.6970325112342834</v>
+        <v>0.6852999925613403</v>
       </c>
       <c r="H3">
-        <v>0.8947993516921997</v>
+        <v>0.9175170660018921</v>
       </c>
       <c r="I3">
-        <v>0.8763228058815002</v>
+        <v>0.7988792657852173</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -511,28 +511,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.7342475652694702</v>
+        <v>0.7322165966033936</v>
       </c>
       <c r="C4">
-        <v>0.8252894282341003</v>
+        <v>0.8717581629753113</v>
       </c>
       <c r="D4">
-        <v>0.58415687084198</v>
+        <v>0.4072900712490082</v>
       </c>
       <c r="E4">
-        <v>0.7982645630836487</v>
+        <v>0.7718201279640198</v>
       </c>
       <c r="F4">
-        <v>0.6770882606506348</v>
+        <v>0.666563868522644</v>
       </c>
       <c r="G4">
-        <v>0.7060934901237488</v>
+        <v>0.691706657409668</v>
       </c>
       <c r="H4">
-        <v>0.8987610936164856</v>
+        <v>0.9204167127609253</v>
       </c>
       <c r="I4">
-        <v>0.8775305151939392</v>
+        <v>0.7991721034049988</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -540,28 +540,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7746322154998779</v>
+        <v>0.7727501392364502</v>
       </c>
       <c r="C5">
-        <v>0.8160256147384644</v>
+        <v>0.864330530166626</v>
       </c>
       <c r="D5">
-        <v>0.6060454845428467</v>
+        <v>0.3809455931186676</v>
       </c>
       <c r="E5">
-        <v>0.7430962920188904</v>
+        <v>0.7296013832092285</v>
       </c>
       <c r="F5">
-        <v>0.7346484661102295</v>
+        <v>0.7112788558006287</v>
       </c>
       <c r="G5">
-        <v>0.715342104434967</v>
+        <v>0.6975353956222534</v>
       </c>
       <c r="H5">
-        <v>0.8715158700942993</v>
+        <v>0.8996250629425049</v>
       </c>
       <c r="I5">
-        <v>0.8538533449172974</v>
+        <v>0.781090259552002</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -569,28 +569,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.6302435994148254</v>
+        <v>0.6331847906112671</v>
       </c>
       <c r="C6">
-        <v>0.4539577066898346</v>
+        <v>0.4561571776866913</v>
       </c>
       <c r="D6">
-        <v>0.7369418144226074</v>
+        <v>0.2299167662858963</v>
       </c>
       <c r="E6">
-        <v>0.8329867720603943</v>
+        <v>0.7789728045463562</v>
       </c>
       <c r="F6">
-        <v>0.6459562182426453</v>
+        <v>0.6232669353485107</v>
       </c>
       <c r="G6">
-        <v>0.7567756175994873</v>
+        <v>0.7150557041168213</v>
       </c>
       <c r="H6">
-        <v>0.6286484599113464</v>
+        <v>0.6350840330123901</v>
       </c>
       <c r="I6">
-        <v>0.6756175756454468</v>
+        <v>0.6232362389564514</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -598,28 +598,28 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.6126068234443665</v>
+        <v>0.6141532063484192</v>
       </c>
       <c r="C7">
-        <v>0.418031245470047</v>
+        <v>0.4069890677928925</v>
       </c>
       <c r="D7">
-        <v>0.7564313411712646</v>
+        <v>0.2079994529485703</v>
       </c>
       <c r="E7">
-        <v>0.8167857527732849</v>
+        <v>0.7623967528343201</v>
       </c>
       <c r="F7">
-        <v>0.6471148729324341</v>
+        <v>0.6284594535827637</v>
       </c>
       <c r="G7">
-        <v>0.7648336291313171</v>
+        <v>0.7245882749557495</v>
       </c>
       <c r="H7">
-        <v>0.5998349785804749</v>
+        <v>0.6130511164665222</v>
       </c>
       <c r="I7">
-        <v>0.6591144800186157</v>
+        <v>0.6147958040237427</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -627,28 +627,28 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6040168404579163</v>
+        <v>0.610186755657196</v>
       </c>
       <c r="C8">
-        <v>0.4746412336826324</v>
+        <v>0.4877357482910156</v>
       </c>
       <c r="D8">
-        <v>0.7469369173049927</v>
+        <v>0.2186905741691589</v>
       </c>
       <c r="E8">
-        <v>0.9023038744926453</v>
+        <v>0.8541560769081116</v>
       </c>
       <c r="F8">
-        <v>0.6472871899604797</v>
+        <v>0.6312620639801025</v>
       </c>
       <c r="G8">
-        <v>0.7410669326782227</v>
+        <v>0.7072592973709106</v>
       </c>
       <c r="H8">
-        <v>0.6080907583236694</v>
+        <v>0.6345805525779724</v>
       </c>
       <c r="I8">
-        <v>0.6371321678161621</v>
+        <v>0.6037534475326538</v>
       </c>
     </row>
   </sheetData>
